--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>26.566300074963</v>
+        <v>318.3774026028094</v>
       </c>
       <c r="R2">
-        <v>239.096700674667</v>
+        <v>2865.396623425284</v>
       </c>
       <c r="S2">
-        <v>4.836656150440171E-05</v>
+        <v>0.000234024026725586</v>
       </c>
       <c r="T2">
-        <v>4.836656150440171E-05</v>
+        <v>0.000234024026725586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>2172.564111190416</v>
+        <v>4964.62869688803</v>
       </c>
       <c r="R3">
-        <v>19553.07700071374</v>
+        <v>44681.65827199227</v>
       </c>
       <c r="S3">
-        <v>0.003955366588860358</v>
+        <v>0.003649261503312747</v>
       </c>
       <c r="T3">
-        <v>0.003955366588860358</v>
+        <v>0.003649261503312746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>2017.169589103489</v>
+        <v>5874.046038190419</v>
       </c>
       <c r="R4">
-        <v>18154.5263019314</v>
+        <v>52866.41434371378</v>
       </c>
       <c r="S4">
-        <v>0.003672455581728896</v>
+        <v>0.00431773076792061</v>
       </c>
       <c r="T4">
-        <v>0.003672455581728895</v>
+        <v>0.00431773076792061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>349.3877653501351</v>
+        <v>560.5621732079409</v>
       </c>
       <c r="R5">
-        <v>3144.489888151216</v>
+        <v>5045.059558871467</v>
       </c>
       <c r="S5">
-        <v>0.0006360947815092508</v>
+        <v>0.0004120424877258866</v>
       </c>
       <c r="T5">
-        <v>0.0006360947815092508</v>
+        <v>0.0004120424877258865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>813.9239804432061</v>
+        <v>1900.134751849508</v>
       </c>
       <c r="R6">
-        <v>7325.315823988854</v>
+        <v>17101.21276664557</v>
       </c>
       <c r="S6">
-        <v>0.00148182863812166</v>
+        <v>0.001396698328190709</v>
       </c>
       <c r="T6">
-        <v>0.00148182863812166</v>
+        <v>0.001396698328190709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>1909.363861729926</v>
+        <v>8402.696325377099</v>
       </c>
       <c r="R7">
-        <v>17184.27475556933</v>
+        <v>75624.26692839389</v>
       </c>
       <c r="S7">
-        <v>0.003476184654696257</v>
+        <v>0.006176420855691979</v>
       </c>
       <c r="T7">
-        <v>0.003476184654696257</v>
+        <v>0.006176420855691979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>167.03986835031</v>
+        <v>876.0262670045468</v>
       </c>
       <c r="R8">
-        <v>1503.35881515279</v>
+        <v>7884.23640304092</v>
       </c>
       <c r="S8">
-        <v>0.000304112505070531</v>
+        <v>0.0006439250802530996</v>
       </c>
       <c r="T8">
-        <v>0.000304112505070531</v>
+        <v>0.0006439250802530995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>13660.34495175598</v>
@@ -1013,10 +1013,10 @@
         <v>122943.1045658038</v>
       </c>
       <c r="S9">
-        <v>0.02487000118255531</v>
+        <v>0.0100410673180178</v>
       </c>
       <c r="T9">
-        <v>0.02487000118255531</v>
+        <v>0.0100410673180178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>12683.27699579239</v>
+        <v>16162.63774055739</v>
       </c>
       <c r="R10">
-        <v>114149.4929621315</v>
+        <v>145463.7396650165</v>
       </c>
       <c r="S10">
-        <v>0.02309115289533634</v>
+        <v>0.0118803832672476</v>
       </c>
       <c r="T10">
-        <v>0.02309115289533634</v>
+        <v>0.0118803832672476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>2196.831555866436</v>
+        <v>1542.405911992246</v>
       </c>
       <c r="R11">
-        <v>19771.48400279792</v>
+        <v>13881.65320793021</v>
       </c>
       <c r="S11">
-        <v>0.003999547858068543</v>
+        <v>0.001133748938897179</v>
       </c>
       <c r="T11">
-        <v>0.003999547858068544</v>
+        <v>0.001133748938897179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>5117.677439340706</v>
+        <v>5228.285487161164</v>
       </c>
       <c r="R12">
-        <v>46059.09695406635</v>
+        <v>47054.56938445048</v>
       </c>
       <c r="S12">
-        <v>0.009317234990612671</v>
+        <v>0.003843063020722065</v>
       </c>
       <c r="T12">
-        <v>0.009317234990612672</v>
+        <v>0.003843063020722065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>12005.43121158171</v>
+        <v>23120.30513006003</v>
       </c>
       <c r="R13">
-        <v>108048.8809042354</v>
+        <v>208082.7461705403</v>
       </c>
       <c r="S13">
-        <v>0.02185706799378759</v>
+        <v>0.01699463234961742</v>
       </c>
       <c r="T13">
-        <v>0.02185706799378759</v>
+        <v>0.01699463234961742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>703.2782101788779</v>
+        <v>9430.79722660601</v>
       </c>
       <c r="R14">
-        <v>6329.503891609901</v>
+        <v>84877.17503945409</v>
       </c>
       <c r="S14">
-        <v>0.001280387133749923</v>
+        <v>0.006932128738282986</v>
       </c>
       <c r="T14">
-        <v>0.001280387133749923</v>
+        <v>0.006932128738282987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>57513.35320708894</v>
+        <v>147059.4525961093</v>
       </c>
       <c r="R15">
-        <v>517620.1788638004</v>
+        <v>1323535.073364984</v>
       </c>
       <c r="S15">
-        <v>0.1047087147011728</v>
+        <v>0.1080963817885555</v>
       </c>
       <c r="T15">
-        <v>0.1047087147011728</v>
+        <v>0.1080963817885555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>53399.66100845679</v>
+        <v>173997.7040865318</v>
       </c>
       <c r="R16">
-        <v>480596.9490761112</v>
+        <v>1565979.336778786</v>
       </c>
       <c r="S16">
-        <v>0.09721933356138698</v>
+        <v>0.1278974042078507</v>
       </c>
       <c r="T16">
-        <v>0.09721933356138697</v>
+        <v>0.1278974042078507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>9249.191704546498</v>
+        <v>16604.65895258559</v>
       </c>
       <c r="R17">
-        <v>83242.72534091849</v>
+        <v>149441.9305732703</v>
       </c>
       <c r="S17">
-        <v>0.01683906295500855</v>
+        <v>0.01220529195452027</v>
       </c>
       <c r="T17">
-        <v>0.01683906295500855</v>
+        <v>0.01220529195452028</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>21546.65868308962</v>
+        <v>56284.72812901173</v>
       </c>
       <c r="R18">
-        <v>193919.9281478066</v>
+        <v>506562.5531611057</v>
       </c>
       <c r="S18">
-        <v>0.0392278107779168</v>
+        <v>0.04137221615674414</v>
       </c>
       <c r="T18">
-        <v>0.0392278107779168</v>
+        <v>0.04137221615674415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>50545.76645858063</v>
+        <v>248899.9676281661</v>
       </c>
       <c r="R19">
-        <v>454911.8981272256</v>
+        <v>2240099.708653495</v>
       </c>
       <c r="S19">
-        <v>0.09202353791486599</v>
+        <v>0.1829544816937879</v>
       </c>
       <c r="T19">
-        <v>0.09202353791486598</v>
+        <v>0.1829544816937879</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>64.968414857535</v>
+        <v>438.825310013272</v>
       </c>
       <c r="R20">
-        <v>584.7157337178149</v>
+        <v>3949.427790119448</v>
       </c>
       <c r="S20">
-        <v>0.0001182813874790138</v>
+        <v>0.0003225595322998698</v>
       </c>
       <c r="T20">
-        <v>0.0001182813874790138</v>
+        <v>0.0003225595322998697</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>5313.04871518159</v>
+        <v>6842.837177519747</v>
       </c>
       <c r="R21">
-        <v>47817.4384366343</v>
+        <v>61585.53459767772</v>
       </c>
       <c r="S21">
-        <v>0.009672927608797654</v>
+        <v>0.005029842876469852</v>
       </c>
       <c r="T21">
-        <v>0.009672927608797656</v>
+        <v>0.005029842876469852</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>4933.028322840752</v>
+        <v>8096.303483438236</v>
       </c>
       <c r="R22">
-        <v>44397.25490556678</v>
+        <v>72866.73135094413</v>
       </c>
       <c r="S22">
-        <v>0.008981063117799072</v>
+        <v>0.00595120610727002</v>
       </c>
       <c r="T22">
-        <v>0.008981063117799072</v>
+        <v>0.00595120610727002</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>854.4347244954577</v>
+        <v>772.6329426293194</v>
       </c>
       <c r="R23">
-        <v>7689.91252045912</v>
+        <v>6953.696483663874</v>
       </c>
       <c r="S23">
-        <v>0.001555582431019561</v>
+        <v>0.0005679255843434552</v>
       </c>
       <c r="T23">
-        <v>0.001555582431019561</v>
+        <v>0.0005679255843434551</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>1990.467271495053</v>
+        <v>2618.989962009302</v>
       </c>
       <c r="R24">
-        <v>17914.20544345547</v>
+        <v>23570.90965808372</v>
       </c>
       <c r="S24">
-        <v>0.003623841386930438</v>
+        <v>0.001925094469182337</v>
       </c>
       <c r="T24">
-        <v>0.003623841386930439</v>
+        <v>0.001925094469182337</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>4669.387273832774</v>
+        <v>11581.58773137265</v>
       </c>
       <c r="R25">
-        <v>42024.48546449497</v>
+        <v>104234.2895823538</v>
       </c>
       <c r="S25">
-        <v>0.008501078664715717</v>
+        <v>0.008513072142097924</v>
       </c>
       <c r="T25">
-        <v>0.008501078664715717</v>
+        <v>0.008513072142097924</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>703.895224066182</v>
+        <v>3928.084887737245</v>
       </c>
       <c r="R26">
-        <v>6335.057016595638</v>
+        <v>35352.7639896352</v>
       </c>
       <c r="S26">
-        <v>0.001281510468201659</v>
+        <v>0.002887347642241491</v>
       </c>
       <c r="T26">
-        <v>0.00128151046820166</v>
+        <v>0.00288734764224149</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>57563.81195459538</v>
+        <v>61252.72333414167</v>
       </c>
       <c r="R27">
-        <v>518074.3075913584</v>
+        <v>551274.510007275</v>
       </c>
       <c r="S27">
-        <v>0.1048005798125289</v>
+        <v>0.04502395221952102</v>
       </c>
       <c r="T27">
-        <v>0.1048005798125289</v>
+        <v>0.04502395221952101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>53446.51065052258</v>
+        <v>72472.95594428289</v>
       </c>
       <c r="R28">
-        <v>481018.5958547033</v>
+        <v>652256.6034985459</v>
       </c>
       <c r="S28">
-        <v>0.09730462794141129</v>
+        <v>0.05327140946603545</v>
       </c>
       <c r="T28">
-        <v>0.09730462794141129</v>
+        <v>0.05327140946603545</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>9257.306387534602</v>
+        <v>6916.118365229197</v>
       </c>
       <c r="R29">
-        <v>83315.75748781142</v>
+        <v>62245.06528706277</v>
       </c>
       <c r="S29">
-        <v>0.01685383653329101</v>
+        <v>0.005083708378514901</v>
       </c>
       <c r="T29">
-        <v>0.01685383653329101</v>
+        <v>0.0050837083785149</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>21565.56242195149</v>
+        <v>23443.53130085668</v>
       </c>
       <c r="R30">
-        <v>194090.0617975635</v>
+        <v>210991.7817077101</v>
       </c>
       <c r="S30">
-        <v>0.03926222689328649</v>
+        <v>0.01723222047432265</v>
       </c>
       <c r="T30">
-        <v>0.0392622268932865</v>
+        <v>0.01723222047432265</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>50590.11226568509</v>
+        <v>103671.0023454027</v>
       </c>
       <c r="R31">
-        <v>455311.0103911659</v>
+        <v>933039.0211086239</v>
       </c>
       <c r="S31">
-        <v>0.0921042738171455</v>
+        <v>0.0762036037269145</v>
       </c>
       <c r="T31">
-        <v>0.0921042738171455</v>
+        <v>0.0762036037269145</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>336.189125438589</v>
+        <v>4677.597419151904</v>
       </c>
       <c r="R32">
-        <v>3025.7021289473</v>
+        <v>42098.37677236714</v>
       </c>
       <c r="S32">
-        <v>0.0006120653597510485</v>
+        <v>0.003438278516257605</v>
       </c>
       <c r="T32">
-        <v>0.0006120653597510485</v>
+        <v>0.003438278516257605</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>27493.19349850747</v>
+        <v>72940.27211027325</v>
       </c>
       <c r="R33">
-        <v>247438.7414865672</v>
+        <v>656462.4489924591</v>
       </c>
       <c r="S33">
-        <v>0.05005406212177745</v>
+        <v>0.05361491126617877</v>
       </c>
       <c r="T33">
-        <v>0.05005406212177745</v>
+        <v>0.05361491126617877</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>25526.7191181482</v>
+        <v>86301.42203433042</v>
       </c>
       <c r="R34">
-        <v>229740.4720633338</v>
+        <v>776712.7983089737</v>
       </c>
       <c r="S34">
-        <v>0.04647390215233883</v>
+        <v>0.06343605460534027</v>
       </c>
       <c r="T34">
-        <v>0.04647390215233881</v>
+        <v>0.06343605460534027</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>4421.404822672449</v>
+        <v>8235.773497853486</v>
       </c>
       <c r="R35">
-        <v>39792.64340405205</v>
+        <v>74121.96148068138</v>
       </c>
       <c r="S35">
-        <v>0.00804960222869662</v>
+        <v>0.006053723855433357</v>
       </c>
       <c r="T35">
-        <v>0.00804960222869662</v>
+        <v>0.006053723855433357</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>10299.98119371456</v>
+        <v>27916.75960237787</v>
       </c>
       <c r="R36">
-        <v>92699.83074343106</v>
+        <v>251250.8364214008</v>
       </c>
       <c r="S36">
-        <v>0.01875212854233599</v>
+        <v>0.02052027701045448</v>
       </c>
       <c r="T36">
-        <v>0.01875212854233599</v>
+        <v>0.02052027701045448</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>24162.46767550391</v>
+        <v>123452.3252095728</v>
       </c>
       <c r="R37">
-        <v>217462.2090795352</v>
+        <v>1111070.926886155</v>
       </c>
       <c r="S37">
-        <v>0.04399014825654098</v>
+        <v>0.09074390964305788</v>
       </c>
       <c r="T37">
-        <v>0.04399014825654098</v>
+        <v>0.0907439096430579</v>
       </c>
     </row>
   </sheetData>
